--- a/Programming log-Semester 2.xlsx
+++ b/Programming log-Semester 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackH99\Desktop\Uni Year 2\S2\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4250F7-E0B8-47E6-901E-FE3275787322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7361EE-6050-48F4-8375-00D487D46E41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9EEA5ED-172A-46C3-86FA-58391AED8EB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Start</t>
   </si>
@@ -63,19 +63,31 @@
     <t>Interruptions</t>
   </si>
   <si>
-    <t>Setting up project, adding rigidbody etc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Writing code for double jump </t>
   </si>
   <si>
-    <t xml:space="preserve">Setting up project. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Writing camera follow code </t>
   </si>
   <si>
     <t xml:space="preserve">Writing Player Movement code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding rigidbody to player and adding movement code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixing broken script </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting project - pick up </t>
+  </si>
+  <si>
+    <t>Setting up project - movement and camera follow</t>
+  </si>
+  <si>
+    <t>Setting up project - double jump, adding rigidbody etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick Up script </t>
   </si>
 </sst>
 </file>
@@ -515,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20C40A4-2575-453F-894F-A612DA027546}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -565,7 +577,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>44243</v>
@@ -585,7 +597,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>44243</v>
@@ -605,7 +617,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>44250</v>
@@ -628,7 +640,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>44250</v>
@@ -648,7 +660,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>44250</v>
@@ -664,6 +676,92 @@
       </c>
       <c r="G7">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44257</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="G9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44257</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="F10">
+        <v>0.04</v>
+      </c>
+      <c r="G10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44257</v>
+      </c>
+      <c r="C11">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44257</v>
+      </c>
+      <c r="C12">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F12">
+        <v>0.12</v>
+      </c>
+      <c r="G12">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>

--- a/Programming log-Semester 2.xlsx
+++ b/Programming log-Semester 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackH99\Desktop\Uni Year 2\S2\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7361EE-6050-48F4-8375-00D487D46E41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C252D-7520-49A6-B747-A6A46C1664EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9EEA5ED-172A-46C3-86FA-58391AED8EB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Start</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t xml:space="preserve">Pick Up script </t>
+  </si>
+  <si>
+    <t>Making scene, adding rigidbody, checking specfic boxes are ticked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding player movement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing triggerRespawn script </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding triggerRespawn script </t>
   </si>
 </sst>
 </file>
@@ -527,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20C40A4-2575-453F-894F-A612DA027546}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -764,6 +776,92 @@
         <v>0.47</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C17">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="F17">
+        <v>0.06</v>
+      </c>
+      <c r="G17">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
